--- a/Assignments/Assignment_14/User Story Specs.xlsx
+++ b/Assignments/Assignment_14/User Story Specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/this-sam-pugh/Desktop/Git_Repos/CS3398-Kree-F2019/Assignments/Assignment_14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C022B086-94CE-7A40-9DA5-98939C18C16B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DC27D0-8FF3-D140-9F97-D8C296A69505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17880" yWindow="460" windowWidth="23040" windowHeight="14600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -385,11 +385,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -442,6 +455,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,7 +844,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -917,7 +933,7 @@
     </row>
     <row r="5" spans="1:10" ht="183" customHeight="1" thickBot="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="12"/>
@@ -927,7 +943,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:10" ht="17" thickBot="1">
+    <row r="6" spans="1:10" ht="200" customHeight="1" thickBot="1">
       <c r="A6" s="15"/>
       <c r="B6" s="10" t="s">
         <v>12</v>
@@ -941,7 +957,7 @@
     </row>
     <row r="7" spans="1:10" ht="181" customHeight="1" thickBot="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="12"/>
@@ -965,7 +981,7 @@
     </row>
     <row r="9" spans="1:10" ht="200" customHeight="1">
       <c r="A9" s="15"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="12"/>
@@ -989,7 +1005,7 @@
     </row>
     <row r="11" spans="1:10" ht="200" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="12"/>
@@ -1013,7 +1029,7 @@
     </row>
     <row r="13" spans="1:10" ht="223.75" customHeight="1">
       <c r="A13" s="15"/>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="12"/>

--- a/Assignments/Assignment_14/User Story Specs.xlsx
+++ b/Assignments/Assignment_14/User Story Specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/this-sam-pugh/Desktop/Git_Repos/CS3398-Kree-F2019/Assignments/Assignment_14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DC27D0-8FF3-D140-9F97-D8C296A69505}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CBA36E-679A-4743-8AEA-2451C7A6A117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17880" yWindow="460" windowWidth="23040" windowHeight="14600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Project User Stories and Functional Requirements</t>
   </si>
@@ -119,6 +119,34 @@
   </si>
   <si>
     <t>List Team Members Here: Shelby Jordan, David Kim, Sam Pugh, Ben Kowacki, Jesse Munoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. I, As a User of this application, Would like to have compelling and easy to navigate drop down menu's which are styled and colored in a mannor that makes them easy to discern and understand. 
+2. I, As a User, I would like the parking information to be displayed in a mannor that is easy for me to understand and interpret. EG, When a button is clicked, the information displayed in a clear and concise mannor. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. A Tabular display format that makes manipulation of the data columns easy for the programmer and attractive to the consumer. 
+2. Propper Headings to go with each of the various fields within the table. </t>
+  </si>
+  <si>
+    <t>1. An Easy to understand color scheme relevant to the map we have built.
+2. Well Built and placed within the page to allow space for the rather large Drop Down Columns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Color Coded according to permit type or availablity.
+2. ability to display all the information that we have stored in the database to the user. </t>
+  </si>
+  <si>
+    <t>1. A Well Styled Drop down to distinguish it from the other buttonts/elements on the page. 
+2. Ability for user to reset Options Clicked by either re clicking the option or clicking a reset button for the entire page.</t>
+  </si>
+  <si>
+    <t>1. Optional Buttons Such as Go Back to remove last clicked elements without effecting the rest of the data.
+2. JavaScript Error handling and logging for errors and bugs that occiur between the fron end buttons and back end controller.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Additional Links within the displayed data to refer them to another page of the txstate website with more up to date information. 
+2. Backend Controls to verify information has enough space in filed and it will not cause veiwing issues on the page. </t>
   </si>
 </sst>
 </file>
@@ -245,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -380,19 +408,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -402,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -429,9 +444,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -456,7 +468,13 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -843,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -861,42 +879,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="40">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" ht="22" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
@@ -919,125 +937,139 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="103" customHeight="1">
-      <c r="A4" s="15"/>
+    <row r="4" spans="1:10" ht="200" customHeight="1">
+      <c r="A4" s="14"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="183" customHeight="1" thickBot="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="200" customHeight="1" thickBot="1">
-      <c r="A6" s="15"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="181" customHeight="1" thickBot="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" ht="189" customHeight="1" thickBot="1">
-      <c r="A8" s="15"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" ht="250" customHeight="1" thickBot="1">
+      <c r="A8" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" ht="200" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="21" t="s">
+      <c r="E8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" ht="250" customHeight="1">
+      <c r="A9" s="14"/>
+      <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="200" customHeight="1">
-      <c r="A10" s="15"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="200" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:10" ht="181.25" customHeight="1">
-      <c r="A12" s="15"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:10" ht="223.75" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Assignments/Assignment_14/User Story Specs.xlsx
+++ b/Assignments/Assignment_14/User Story Specs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/this-sam-pugh/Desktop/Git_Repos/CS3398-Kree-F2019/Assignments/Assignment_14/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkim/Documents/GitHub/CS3398-Kree-F2019/Assignments/Assignment_14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CBA36E-679A-4743-8AEA-2451C7A6A117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC777BE-4510-CB4A-A1FB-6BD6A1D88A15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="460" windowWidth="23040" windowHeight="14600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Project User Stories and Functional Requirements</t>
   </si>
@@ -147,6 +147,34 @@
   <si>
     <t xml:space="preserve">1. Additional Links within the displayed data to refer them to another page of the txstate website with more up to date information. 
 2. Backend Controls to verify information has enough space in filed and it will not cause veiwing issues on the page. </t>
+  </si>
+  <si>
+    <t>1. A well organized suggestion box with the best options at the top. 
+2. The suggestion box will disappear when the user clears the text field.</t>
+  </si>
+  <si>
+    <t>1. Autocomplete  for the user input.
+2. Highlight the suggestions when the user hovers over them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. I, as a user of this application, would like to have a auto suggestion box when typing in my class information.
+2. I, as a user, would like to have multiple parking lot suggestions after I enter my class schedule, in order from the closest parking to furthest parking. </t>
+  </si>
+  <si>
+    <t>1. A well visible suggestions in the suggestion box.
+2. A scroll bar for the user to pick their option.</t>
+  </si>
+  <si>
+    <t>1. Automated popup box listing the parking lots in order.
+2. If a parking lot is full or not available, a way to filter that parking lot out of the recommendation list..</t>
+  </si>
+  <si>
+    <t>1. A way to filter the suggestions to show paid parking and free parking.
+2. Brief information of the parking spot.</t>
+  </si>
+  <si>
+    <t>1. Possibly a small picture icon of the parking lot next the name.
+2. Have an option to turn on/off reccommended parking spots.</t>
   </si>
 </sst>
 </file>
@@ -450,7 +478,13 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -468,13 +502,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -861,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -879,42 +907,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="40">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" ht="22" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
@@ -938,7 +966,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="200" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
@@ -950,43 +978,57 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="183" customHeight="1" thickBot="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="200" customHeight="1" thickBot="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="181" customHeight="1" thickBot="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="250" customHeight="1" thickBot="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1006,12 +1048,12 @@
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="250" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="12" t="s">
         <v>19</v>
       </c>
@@ -1024,7 +1066,7 @@
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="200" customHeight="1">
-      <c r="A10" s="14"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
@@ -1036,19 +1078,19 @@
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="200" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:10" ht="181.25" customHeight="1">
-      <c r="A12" s="14"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
@@ -1060,12 +1102,12 @@
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:10" ht="223.75" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -1073,16 +1115,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Assignments/Assignment_14/User Story Specs.xlsx
+++ b/Assignments/Assignment_14/User Story Specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkim/Documents/GitHub/CS3398-Kree-F2019/Assignments/Assignment_14/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessem1020\Documents\GitHub\CS3398-Kree-F2019\Assignments\Assignment_14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC777BE-4510-CB4A-A1FB-6BD6A1D88A15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70253BBD-F1EA-4A1E-B1F6-98F70B0EA9CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Project User Stories and Functional Requirements</t>
   </si>
@@ -175,6 +175,33 @@
   <si>
     <t>1. Possibly a small picture icon of the parking lot next the name.
 2. Have an option to turn on/off reccommended parking spots.</t>
+  </si>
+  <si>
+    <t>1. As a user I would like a way to see where motorcycle parking is available and whether or not I am allowed to park in those areas with my parking pass.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       2. As a user i would enjoy a way to see the amount of parking that is availble in the parking garage, whether that be the amount of spots or howver many stories the garage has.</t>
+  </si>
+  <si>
+    <t>1) Way to show if there is motor cycle parking availabe.                                                                                                                                                                                                                                                                                               2) Must be shown for all garages and parking lots.</t>
+  </si>
+  <si>
+    <t>1) Something that will stand out to see there is motorcycle parking available.                                                                                                                                                                                                                                                         2) The number of spots in that garage or lot dedicated to motorcyles</t>
+  </si>
+  <si>
+    <t>1) A little motorcycle icon showing that the garage has parking for motorcycles.                                                                                                                                                                                                                                                   2) A way to track the number of spots for motorcycles available vs just cars.</t>
+  </si>
+  <si>
+    <t>1) A detailed outline of garage and where the parking is located.                                                                                                                                                                                                                                                                                2) A way to reserve spots for motorcycles.</t>
+  </si>
+  <si>
+    <t>1) Visible way to see the amount of parking that each garage has.                                                                                                                                                                                                                                                                                              2) Show the amount of stories each garage has.</t>
+  </si>
+  <si>
+    <t>1) Number amount for each garage.                                                                                                                                                                                                                                                                                                                                                 2) Way to filter which garage they may want depending on how many stories the garage has.</t>
+  </si>
+  <si>
+    <t>1) However many spots for each kind of parking pass.                                                                                                                                                                                                                                                                                                                      2) Color coordinate the numbers for each kind of pass.</t>
+  </si>
+  <si>
+    <t>1) way to tell how many spots are available currently.                                                                                                                                                                                                                                                                                                                  2) A way to reserve spots.</t>
   </si>
 </sst>
 </file>
@@ -487,6 +514,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -501,9 +531,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,60 +916,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="41.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="10" max="10" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="40">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="54">
+      <c r="A1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" ht="22" customHeight="1">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="22.05" customHeight="1">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="16.05" customHeight="1">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
@@ -965,8 +992,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="200" customHeight="1">
-      <c r="A4" s="22"/>
+    <row r="4" spans="1:10" ht="199.95" customHeight="1">
+      <c r="A4" s="17"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
@@ -978,7 +1005,7 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="183" customHeight="1" thickBot="1">
-      <c r="A5" s="22"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
@@ -989,8 +1016,8 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="200" customHeight="1" thickBot="1">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:10" ht="199.95" customHeight="1" thickBot="1">
+      <c r="A6" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1009,8 +1036,8 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:10" ht="181" customHeight="1" thickBot="1">
-      <c r="A7" s="22"/>
+    <row r="7" spans="1:10" ht="181.05" customHeight="1" thickBot="1">
+      <c r="A7" s="17"/>
       <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
@@ -1027,8 +1054,8 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="250" customHeight="1" thickBot="1">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:10" ht="250.05" customHeight="1" thickBot="1">
+      <c r="A8" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1047,8 +1074,8 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:10" ht="250" customHeight="1">
-      <c r="A9" s="22"/>
+    <row r="9" spans="1:10" ht="250.05" customHeight="1">
+      <c r="A9" s="17"/>
       <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
@@ -1065,8 +1092,8 @@
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="200" customHeight="1">
-      <c r="A10" s="22"/>
+    <row r="10" spans="1:10" ht="199.95" customHeight="1">
+      <c r="A10" s="17"/>
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1104,8 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:10" ht="200" customHeight="1">
-      <c r="A11" s="22"/>
+    <row r="11" spans="1:10" ht="199.95" customHeight="1">
+      <c r="A11" s="17"/>
       <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
@@ -1089,42 +1116,60 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:10" ht="181.25" customHeight="1">
-      <c r="A12" s="22"/>
+    <row r="12" spans="1:10" ht="181.2" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" ht="223.75" customHeight="1">
-      <c r="A13" s="22"/>
+      <c r="E12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="223.8" customHeight="1">
+      <c r="A13" s="17"/>
       <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Assignments/Assignment_14/User Story Specs.xlsx
+++ b/Assignments/Assignment_14/User Story Specs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessem1020\Documents\GitHub\CS3398-Kree-F2019\Assignments\Assignment_14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BenVR\Documents\GitHub\CS3398-Kree-F2019\Assignments\Assignment_14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70253BBD-F1EA-4A1E-B1F6-98F70B0EA9CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AC2BC4-12B3-44A6-86B0-8C24ACC722A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Project User Stories and Functional Requirements</t>
   </si>
@@ -202,6 +202,45 @@
   </si>
   <si>
     <t>1) way to tell how many spots are available currently.                                                                                                                                                                                                                                                                                                                  2) A way to reserve spots.</t>
+  </si>
+  <si>
+    <t>1. Way to select one point and one polygon and get directions between them. 
+2. Way to generate path based on user input or selection.</t>
+  </si>
+  <si>
+    <t>1. Way to concatenate paths. 
+2. Easily-visible and smooth path between points.</t>
+  </si>
+  <si>
+    <t>1. Feature to automatically select a path based on time/traffic, not just shortest distance. 
+2. Ability to add path between apartment complex or unlisted parking space and campus.</t>
+  </si>
+  <si>
+    <t>1. Fully default Google pathfinding.
+2. Invalid or out-of-date paths.</t>
+  </si>
+  <si>
+    <t>1. Easy way to get the student's schedule such as taking an HTML file as input.
+2. Some relation between the schedule the student input and the best time to arrive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Good, reasonable estimates (shouldn't just tell user to get there at 6am for every input).
+2. Different suggested times based on the lot. </t>
+  </si>
+  <si>
+    <t>1. Way to account for estimated time to walk from lot to destination.
+2. Linked to my 1. user story so they input their schedule and it gives them everything they need.</t>
+  </si>
+  <si>
+    <t>1. Permanantly storing the user's HTML file, won't store it at all if possible. 
+2. Suggestions to change schedule to maximize parking efficiency.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. As a user looking for functionality, I would like to be able to get directions from point to point or from a specified garage to a specified building so the website is useful.
+</t>
+  </si>
+  <si>
+    <t>2. As a student, I would like to be able to put in my schedule and have the website tell me what time to arrive for the best chance to get a parking spot.</t>
   </si>
 </sst>
 </file>
@@ -472,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -531,6 +570,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,24 +958,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="41.3046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.4609375" customWidth="1"/>
+    <col min="3" max="3" width="16.69140625" customWidth="1"/>
+    <col min="4" max="4" width="13.4609375" customWidth="1"/>
+    <col min="5" max="5" width="15.4609375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
-    <col min="10" max="10" width="49.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.765625" customWidth="1"/>
+    <col min="10" max="10" width="49.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="54">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="55.3">
       <c r="A1" s="18" t="s">
         <v>16</v>
       </c>
@@ -949,7 +991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" ht="22.05" customHeight="1">
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="22.1" customHeight="1">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -967,7 +1009,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="16.05" customHeight="1">
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="16.100000000000001" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="6" t="s">
@@ -993,7 +1035,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="199.95" customHeight="1">
-      <c r="A4" s="17"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
@@ -1005,7 +1047,7 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="183" customHeight="1" thickBot="1">
-      <c r="A5" s="17"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
@@ -1017,7 +1059,7 @@
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="199.95" customHeight="1" thickBot="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1036,8 +1078,8 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:10" ht="181.05" customHeight="1" thickBot="1">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:10" ht="181.1" customHeight="1" thickBot="1">
+      <c r="A7" s="23"/>
       <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
@@ -1054,8 +1096,8 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="250.05" customHeight="1" thickBot="1">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:10" ht="250.1" customHeight="1" thickBot="1">
+      <c r="A8" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1074,8 +1116,8 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:10" ht="250.05" customHeight="1">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:10" ht="250.1" customHeight="1" thickBot="1">
+      <c r="A9" s="23"/>
       <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
@@ -1092,32 +1134,52 @@
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="199.95" customHeight="1">
-      <c r="A10" s="17"/>
+    <row r="10" spans="1:10" ht="199.95" customHeight="1" thickBot="1">
+      <c r="A10" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" ht="199.95" customHeight="1">
-      <c r="A11" s="17"/>
+    <row r="11" spans="1:10" ht="199.95" customHeight="1" thickBot="1">
+      <c r="A11" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="E11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" ht="181.2" customHeight="1">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:10" ht="181.2" customHeight="1" thickBot="1">
+      <c r="A12" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1138,8 +1200,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="223.8" customHeight="1">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:10" ht="223.85" customHeight="1">
+      <c r="A13" s="23"/>
       <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
@@ -1159,17 +1221,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Assignments/Assignment_14/User Story Specs.xlsx
+++ b/Assignments/Assignment_14/User Story Specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BenVR\Documents\GitHub\CS3398-Kree-F2019\Assignments\Assignment_14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/this-sam-pugh/Desktop/Git_Repos/CS3398-Kree-F2019/Assignments/Assignment_14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AC2BC4-12B3-44A6-86B0-8C24ACC722A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4780C5-7C64-BA4E-8893-F8D201C8604F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8720" yWindow="6020" windowWidth="16880" windowHeight="9040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Project User Stories and Functional Requirements</t>
   </si>
@@ -242,12 +242,38 @@
   <si>
     <t>2. As a student, I would like to be able to put in my schedule and have the website tell me what time to arrive for the best chance to get a parking spot.</t>
   </si>
+  <si>
+    <t>As a user, i would like the ability to discern which parking lots have more parking spaces than others depending on my anticipated arrival time.</t>
+  </si>
+  <si>
+    <t>1. An option for the user to select their expected arrival time.
+2. A legend so that the user can distinguish lot availability.</t>
+  </si>
+  <si>
+    <t>1. A clearly identifiable area to input the expected time of arrival.
+2. A hover over lot window that displays the lot information at that time.</t>
+  </si>
+  <si>
+    <t>1. A backend function that predicts the available lots based on a user input time and only displays those.
+2. A hover over lot window that displays the lot information at that time.</t>
+  </si>
+  <si>
+    <t>As a user, I would like the option to select multiple parking options simultaneously and determine my anticipated desitination so that I can see which lot provides the best walking option to my classes.</t>
+  </si>
+  <si>
+    <t>1. A dropdown selection that is filtered by available lots.
+2.A clear walking path and some way to distinguish between multiple options.</t>
+  </si>
+  <si>
+    <t>1. Color coded paths.
+2.A table or some other form that shows all parking options the user selected.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -291,6 +317,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -511,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -556,6 +588,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -571,8 +609,17 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,60 +1005,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.3046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.4609375" customWidth="1"/>
-    <col min="3" max="3" width="16.69140625" customWidth="1"/>
-    <col min="4" max="4" width="13.4609375" customWidth="1"/>
-    <col min="5" max="5" width="15.4609375" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16.765625" customWidth="1"/>
-    <col min="10" max="10" width="49.3046875" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="49.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="55.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="40">
+      <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" ht="22.1" customHeight="1">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="22" customHeight="1">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="16.100000000000001" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1034,32 +1081,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="199.95" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:10" ht="200" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>54</v>
+      </c>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="183" customHeight="1" thickBot="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="E5" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="28"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="199.95" customHeight="1" thickBot="1">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:10" ht="200" customHeight="1" thickBot="1">
+      <c r="A6" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1078,8 +1139,8 @@
       </c>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:10" ht="181.1" customHeight="1" thickBot="1">
-      <c r="A7" s="23"/>
+    <row r="7" spans="1:10" ht="181" customHeight="1" thickBot="1">
+      <c r="A7" s="19"/>
       <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
@@ -1096,8 +1157,8 @@
       </c>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:10" ht="250.1" customHeight="1" thickBot="1">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:10" ht="250" customHeight="1" thickBot="1">
+      <c r="A8" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1116,8 +1177,8 @@
       </c>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:10" ht="250.1" customHeight="1" thickBot="1">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:10" ht="250" customHeight="1" thickBot="1">
+      <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
@@ -1134,7 +1195,7 @@
       </c>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:10" ht="199.95" customHeight="1" thickBot="1">
+    <row r="10" spans="1:10" ht="200" customHeight="1" thickBot="1">
       <c r="A10" s="17" t="s">
         <v>49</v>
       </c>
@@ -1156,7 +1217,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="199.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:10" ht="200" customHeight="1" thickBot="1">
       <c r="A11" s="17" t="s">
         <v>50</v>
       </c>
@@ -1178,8 +1239,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="181.2" customHeight="1" thickBot="1">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:10" ht="181.25" customHeight="1" thickBot="1">
+      <c r="A12" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1200,8 +1261,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="223.85" customHeight="1">
-      <c r="A13" s="23"/>
+    <row r="13" spans="1:10" ht="223.75" customHeight="1">
+      <c r="A13" s="19"/>
       <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
@@ -1221,8 +1282,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="8">
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>

--- a/Assignments/Assignment_14/User Story Specs.xlsx
+++ b/Assignments/Assignment_14/User Story Specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/this-sam-pugh/Desktop/Git_Repos/CS3398-Kree-F2019/Assignments/Assignment_14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4780C5-7C64-BA4E-8893-F8D201C8604F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA57D21-75E4-244D-AA75-E5A33BA4194C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8720" yWindow="6020" windowWidth="16880" windowHeight="9040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -591,6 +591,18 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -608,18 +620,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1023,42 +1023,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="40">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="2"/>
       <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" ht="22" customHeight="1">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1" ht="16" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1085,18 +1085,22 @@
       <c r="A4" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="11">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11">
+        <v>21</v>
+      </c>
       <c r="E4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="20" t="s">
         <v>54</v>
       </c>
       <c r="H4" s="13"/>
@@ -1105,29 +1109,37 @@
       <c r="A5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="28" t="s">
+      <c r="C5" s="15">
+        <v>34</v>
+      </c>
+      <c r="D5" s="15">
+        <v>34</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="28"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="200" customHeight="1" thickBot="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="11">
+        <v>34</v>
+      </c>
+      <c r="D6" s="11">
+        <v>34</v>
+      </c>
       <c r="E6" s="13" t="s">
         <v>28</v>
       </c>
@@ -1140,12 +1152,16 @@
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:10" ht="181" customHeight="1" thickBot="1">
-      <c r="A7" s="19"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="15">
+        <v>34</v>
+      </c>
+      <c r="D7" s="15">
+        <v>34</v>
+      </c>
       <c r="E7" s="13" t="s">
         <v>29</v>
       </c>
@@ -1158,14 +1174,18 @@
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="250" customHeight="1" thickBot="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="11">
+        <v>21</v>
+      </c>
+      <c r="D8" s="11">
+        <v>21</v>
+      </c>
       <c r="E8" s="13" t="s">
         <v>20</v>
       </c>
@@ -1178,12 +1198,16 @@
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="250" customHeight="1" thickBot="1">
-      <c r="A9" s="19"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="15">
+        <v>34</v>
+      </c>
+      <c r="D9" s="15">
+        <v>21</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>19</v>
       </c>
@@ -1202,8 +1226,12 @@
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="11">
+        <v>34</v>
+      </c>
+      <c r="D10" s="11">
+        <v>89</v>
+      </c>
       <c r="E10" s="13" t="s">
         <v>41</v>
       </c>
@@ -1224,8 +1252,12 @@
       <c r="B11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="15">
+        <v>34</v>
+      </c>
+      <c r="D11" s="15">
+        <v>55</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>45</v>
       </c>
@@ -1240,14 +1272,18 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="181.25" customHeight="1" thickBot="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="11">
+        <v>55</v>
+      </c>
+      <c r="D12" s="11">
+        <v>21</v>
+      </c>
       <c r="E12" s="13" t="s">
         <v>33</v>
       </c>
@@ -1262,12 +1298,16 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="223.75" customHeight="1">
-      <c r="A13" s="19"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="C13" s="15">
+        <v>55</v>
+      </c>
+      <c r="D13" s="15">
+        <v>55</v>
+      </c>
       <c r="E13" s="12" t="s">
         <v>37</v>
       </c>

--- a/Assignments/Assignment_14/User Story Specs.xlsx
+++ b/Assignments/Assignment_14/User Story Specs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/this-sam-pugh/Desktop/Git_Repos/CS3398-Kree-F2019/Assignments/Assignment_14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA57D21-75E4-244D-AA75-E5A33BA4194C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484AB970-5F62-3D4A-9421-A5D314DA426A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12760" windowHeight="14600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>Project User Stories and Functional Requirements</t>
   </si>
@@ -267,6 +267,18 @@
   <si>
     <t>1. Color coded paths.
 2.A table or some other form that shows all parking options the user selected.</t>
+  </si>
+  <si>
+    <t>1. Pop up options.
+2. Voice interaction.</t>
+  </si>
+  <si>
+    <t>1. Additional routes shown that the user didn’t select.
+2.Show impediments on any route.</t>
+  </si>
+  <si>
+    <t>1.A small window.
+2. A free text area to accept user input for this field.</t>
   </si>
 </sst>
 </file>
@@ -588,20 +600,20 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1005,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1082,10 +1094,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="200" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="11">
@@ -1097,19 +1109,21 @@
       <c r="E4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="183" customHeight="1" thickBot="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="15">
@@ -1118,14 +1132,18 @@
       <c r="D5" s="15">
         <v>34</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="200" customHeight="1" thickBot="1">
       <c r="A6" s="23" t="s">

--- a/Assignments/Assignment_14/User Story Specs.xlsx
+++ b/Assignments/Assignment_14/User Story Specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/this-sam-pugh/Desktop/Git_Repos/CS3398-Kree-F2019/Assignments/Assignment_14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484AB970-5F62-3D4A-9421-A5D314DA426A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CBA1CF-1459-D14C-B6A1-B1E2307A3AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12760" windowHeight="14600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30520" windowHeight="17560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>Project User Stories and Functional Requirements</t>
   </si>
@@ -279,6 +279,14 @@
   <si>
     <t>1.A small window.
 2. A free text area to accept user input for this field.</t>
+  </si>
+  <si>
+    <t>1. Broken Links within the drop down that do not cause reaction on the page.
+2. Links that are not relevant to the groups within the drop downs.</t>
+  </si>
+  <si>
+    <t>1. Information other than what is required in the table. Simplify what the user sees.
+2. Differing color scheme to conflict with the rest of the page.</t>
   </si>
 </sst>
 </file>
@@ -1017,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1213,7 +1221,9 @@
       <c r="G8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="250" customHeight="1" thickBot="1">
       <c r="A9" s="23"/>
@@ -1235,7 +1245,9 @@
       <c r="G9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="200" customHeight="1" thickBot="1">
       <c r="A10" s="17" t="s">

--- a/Assignments/Assignment_14/User Story Specs.xlsx
+++ b/Assignments/Assignment_14/User Story Specs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/this-sam-pugh/Desktop/Git_Repos/CS3398-Kree-F2019/Assignments/Assignment_14/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidkim/Documents/GitHub/CS3398-Kree-F2019/Assignments/Assignment_14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CBA1CF-1459-D14C-B6A1-B1E2307A3AA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E59EF3-FCBD-C245-AFB6-41AED4C9E2A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30520" windowHeight="17560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Project User Stories and Functional Requirements</t>
   </si>
@@ -287,6 +287,14 @@
   <si>
     <t>1. Information other than what is required in the table. Simplify what the user sees.
 2. Differing color scheme to conflict with the rest of the page.</t>
+  </si>
+  <si>
+    <t>1. Poorly formated text,
+2. An unorganized list of suggestions.</t>
+  </si>
+  <si>
+    <t>1. Autocomplete option.
+2. Parking options that are not within a certain mile radius of your classes.</t>
   </si>
 </sst>
 </file>
@@ -1025,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1175,7 +1183,9 @@
       <c r="G6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="181" customHeight="1" thickBot="1">
       <c r="A7" s="23"/>
@@ -1197,7 +1207,9 @@
       <c r="G7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="250" customHeight="1" thickBot="1">
       <c r="A8" s="23" t="s">
